--- a/single_cell/singlecell_schema_main_v0.5.xlsx
+++ b/single_cell/singlecell_schema_main_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85432DB4-8505-B347-869E-9074BFF81979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFA42B-1378-0D44-B2B1-14A91200B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1640" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -7128,7 +7128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7582,7 +7582,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7990,10 +7989,10 @@
   </sheetPr>
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="M238" sqref="M238"/>
+      <selection pane="topRight" activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -21020,7 +21019,7 @@
       <c r="C236" s="67" t="s">
         <v>1910</v>
       </c>
-      <c r="D236" s="161" t="s">
+      <c r="D236" t="s">
         <v>1922</v>
       </c>
       <c r="F236" s="1" t="b">
@@ -21076,7 +21075,7 @@
       <c r="C237" s="67" t="s">
         <v>1911</v>
       </c>
-      <c r="D237" s="161" t="s">
+      <c r="D237" t="s">
         <v>1923</v>
       </c>
       <c r="F237" s="1" t="b">
@@ -21126,7 +21125,7 @@
       <c r="C238" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="D238" s="161" t="s">
+      <c r="D238" t="s">
         <v>1925</v>
       </c>
       <c r="F238" s="1" t="b">
@@ -21186,7 +21185,7 @@
       <c r="F239" s="78" t="b">
         <v>0</v>
       </c>
-      <c r="G239" s="162" t="s">
+      <c r="G239" s="161" t="s">
         <v>24</v>
       </c>
       <c r="H239" s="71" t="s">
@@ -21304,7 +21303,7 @@
       <c r="C241" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="D241" s="161" t="s">
+      <c r="D241" t="s">
         <v>819</v>
       </c>
       <c r="F241" s="1" t="b">
@@ -21354,7 +21353,7 @@
       <c r="C242" s="67" t="s">
         <v>1953</v>
       </c>
-      <c r="D242" s="161" t="s">
+      <c r="D242" t="s">
         <v>815</v>
       </c>
       <c r="F242" s="1" t="b">
@@ -21369,7 +21368,7 @@
       <c r="M242" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="O242" s="163" t="s">
+      <c r="O242" s="162" t="s">
         <v>34</v>
       </c>
       <c r="P242" s="149" t="s">
@@ -21378,16 +21377,16 @@
       <c r="Q242" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="R242" s="164" t="s">
-        <v>34</v>
-      </c>
-      <c r="S242" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="T242" s="166" t="s">
-        <v>34</v>
-      </c>
-      <c r="U242" s="167" t="s">
+      <c r="R242" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="S242" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="T242" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="U242" s="166" t="s">
         <v>34</v>
       </c>
       <c r="V242" s="112"/>
@@ -21453,9 +21452,9 @@
       <c r="U243" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="V243" s="168"/>
-      <c r="W243" s="169"/>
-      <c r="X243" s="170"/>
+      <c r="V243" s="167"/>
+      <c r="W243" s="168"/>
+      <c r="X243" s="169"/>
     </row>
     <row r="244" spans="1:24" ht="15.75" customHeight="1">
       <c r="A244" t="s">
@@ -41646,7 +41645,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="161" t="s">
+      <c r="A17" t="s">
         <v>1902</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -41657,7 +41656,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="161" t="s">
+      <c r="A18" t="s">
         <v>1903</v>
       </c>
       <c r="B18" s="3" t="s">

--- a/single_cell/singlecell_schema_main_v0.5.xlsx
+++ b/single_cell/singlecell_schema_main_v0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFA42B-1378-0D44-B2B1-14A91200B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB490BD1-F4C2-7444-8621-70DDECDB6EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1971">
   <si>
     <t>component_name</t>
   </si>
@@ -6050,15 +6050,9 @@
     <t>Assembly Type</t>
   </si>
   <si>
-    <t>Sequencing_annotation</t>
-  </si>
-  <si>
     <t>assembly_description</t>
   </si>
   <si>
-    <t>Sequencing_annotation_file</t>
-  </si>
-  <si>
     <t>sequencing_annotation_id</t>
   </si>
   <si>
@@ -6095,9 +6089,6 @@
     <t>File type for the sequencing annotation file</t>
   </si>
   <si>
-    <t>The file name of the sequencing annotation file</t>
-  </si>
-  <si>
     <t>ANNO01</t>
   </si>
   <si>
@@ -6110,9 +6101,6 @@
     <t>assembly_run_ref</t>
   </si>
   <si>
-    <t>Sequencing_annotation_run_ref</t>
-  </si>
-  <si>
     <t>run_file_id</t>
   </si>
   <si>
@@ -6126,6 +6114,12 @@
   </si>
   <si>
     <t>The description of the sequencing annotation</t>
+  </si>
+  <si>
+    <t>sequencing_annotation_run_ref</t>
+  </si>
+  <si>
+    <t>sequencing_annotation_file</t>
   </si>
 </sst>
 </file>
@@ -7987,12 +7981,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:X255"/>
+  <dimension ref="A1:X254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="F257" sqref="F257"/>
+      <selection pane="topRight" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -18237,7 +18231,7 @@
         <v>787</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>30</v>
@@ -20503,7 +20497,7 @@
         <v>25</v>
       </c>
       <c r="C227" s="67" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D227" s="67" t="s">
         <v>49</v>
@@ -20697,7 +20691,7 @@
     </row>
     <row r="231" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
       <c r="A231" s="78" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B231" s="78" t="s">
         <v>25</v>
@@ -20761,7 +20755,7 @@
     </row>
     <row r="232" spans="1:24" ht="15.75" customHeight="1">
       <c r="A232" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>25</v>
@@ -20823,13 +20817,13 @@
     </row>
     <row r="233" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A233" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C233" s="67" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="D233" s="67" t="s">
         <v>1941</v>
@@ -20844,7 +20838,7 @@
         <v>1942</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>30</v>
@@ -21351,7 +21345,7 @@
         <v>25</v>
       </c>
       <c r="C242" s="67" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D242" t="s">
         <v>815</v>
@@ -21395,7 +21389,7 @@
     </row>
     <row r="243" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
       <c r="A243" s="71" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="B243" s="71" t="s">
         <v>25</v>
@@ -21407,7 +21401,7 @@
         <v>27</v>
       </c>
       <c r="E243" s="71"/>
-      <c r="F243" s="75" t="b">
+      <c r="F243" s="78" t="b">
         <v>0</v>
       </c>
       <c r="G243" s="75" t="s">
@@ -21458,25 +21452,25 @@
     </row>
     <row r="244" spans="1:24" ht="15.75" customHeight="1">
       <c r="A244" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C244" s="67" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D244" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H244" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I244" t="s">
         <v>1960</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1963</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>30</v>
@@ -21517,7 +21511,7 @@
     </row>
     <row r="245" spans="1:24" ht="15.75" customHeight="1">
       <c r="A245" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>25</v>
@@ -21579,13 +21573,13 @@
     </row>
     <row r="246" spans="1:24" ht="15.75" customHeight="1">
       <c r="A246" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C246" s="67" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="D246" t="s">
         <v>38</v>
@@ -21594,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="L246" t="s">
         <v>32</v>
@@ -21629,13 +21623,13 @@
     </row>
     <row r="247" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A247" t="s">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C247" s="67" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="D247" t="s">
         <v>49</v>
@@ -21644,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="L247" t="s">
         <v>32</v>
@@ -21677,9 +21671,9 @@
       <c r="W247" s="125"/>
       <c r="X247" s="90"/>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A248" s="71" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B248" s="71" t="s">
         <v>25</v>
@@ -21691,7 +21685,7 @@
         <v>27</v>
       </c>
       <c r="E248" s="71"/>
-      <c r="F248" s="75" t="b">
+      <c r="F248" s="78" t="b">
         <v>0</v>
       </c>
       <c r="G248" s="75" t="s">
@@ -21740,30 +21734,30 @@
       <c r="W248" s="124"/>
       <c r="X248" s="117"/>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A249" t="s">
-        <v>1967</v>
+    <row r="249" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A249" s="71" t="s">
+        <v>1969</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C249" s="67" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D249" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F249" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="H249" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I249" t="s">
         <v>1960</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1963</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>30</v>
@@ -21802,15 +21796,15 @@
       <c r="W249" s="124"/>
       <c r="X249" s="117"/>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A250" t="s">
-        <v>1967</v>
+    <row r="250" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A250" s="71" t="s">
+        <v>1969</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C250" s="67" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="D250" s="67" t="s">
         <v>1941</v>
@@ -21855,9 +21849,9 @@
       <c r="W250" s="124"/>
       <c r="X250" s="117"/>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A251" s="71" t="s">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="B251" s="71" t="s">
         <v>25</v>
@@ -21869,7 +21863,7 @@
         <v>27</v>
       </c>
       <c r="E251" s="75"/>
-      <c r="F251" s="75" t="b">
+      <c r="F251" s="78" t="b">
         <v>0</v>
       </c>
       <c r="G251" s="75" t="s">
@@ -21918,30 +21912,30 @@
       <c r="W251" s="124"/>
       <c r="X251" s="117"/>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A252" t="s">
-        <v>1949</v>
+    <row r="252" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A252" s="71" t="s">
+        <v>1970</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C252" s="67" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D252" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F252" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="H252" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I252" t="s">
         <v>1960</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1963</v>
       </c>
       <c r="J252" s="3" t="s">
         <v>30</v>
@@ -21980,15 +21974,15 @@
       <c r="W252" s="124"/>
       <c r="X252" s="117"/>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A253" t="s">
-        <v>1949</v>
+    <row r="253" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A253" s="71" t="s">
+        <v>1970</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C253" s="67" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D253" t="s">
         <v>819</v>
@@ -21997,7 +21991,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="L253" t="s">
         <v>32</v>
@@ -22030,15 +22024,15 @@
       <c r="W253" s="124"/>
       <c r="X253" s="117"/>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A254" t="s">
-        <v>1949</v>
+    <row r="254" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A254" s="71" t="s">
+        <v>1970</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C254" s="67" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D254" t="s">
         <v>815</v>
@@ -22047,7 +22041,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="L254" t="s">
         <v>32</v>
@@ -22079,11 +22073,6 @@
       <c r="V254" s="110"/>
       <c r="W254" s="124"/>
       <c r="X254" s="117"/>
-    </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1">
-      <c r="H255" t="s">
-        <v>1962</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:X195" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
@@ -22423,7 +22412,7 @@
         <v>1934</v>
       </c>
       <c r="BL1" s="67" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="20">
@@ -22617,7 +22606,7 @@
         <v>1935</v>
       </c>
       <c r="BL2" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="20">
@@ -22807,7 +22796,7 @@
         <v>1936</v>
       </c>
       <c r="BL3" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="21" customHeight="1">
@@ -22978,7 +22967,7 @@
         <v>1937</v>
       </c>
       <c r="BL4" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="5" spans="1:64" ht="22">
@@ -23133,7 +23122,7 @@
         <v>1938</v>
       </c>
       <c r="BL5" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="22">

--- a/single_cell/singlecell_schema_main_v0.5.xlsx
+++ b/single_cell/singlecell_schema_main_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/single_cell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB490BD1-F4C2-7444-8621-70DDECDB6EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D2305-B675-5346-84AE-B8B75F0734AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="1972">
   <si>
     <t>component_name</t>
   </si>
@@ -6120,6 +6120,9 @@
   </si>
   <si>
     <t>sequencing_annotation_file</t>
+  </si>
+  <si>
+    <t>assemblyname</t>
   </si>
 </sst>
 </file>
@@ -7983,10 +7986,10 @@
   </sheetPr>
   <dimension ref="A1:X254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A219" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A257" sqref="A257"/>
+      <selection pane="topRight" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -20452,6 +20455,9 @@
       <c r="D226" s="67" t="s">
         <v>628</v>
       </c>
+      <c r="E226" s="67" t="s">
+        <v>627</v>
+      </c>
       <c r="F226" s="1" t="b">
         <v>0</v>
       </c>
@@ -21671,7 +21677,7 @@
       <c r="W247" s="125"/>
       <c r="X247" s="90"/>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
       <c r="A248" s="71" t="s">
         <v>1969</v>
       </c>
@@ -21734,8 +21740,8 @@
       <c r="W248" s="124"/>
       <c r="X248" s="117"/>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A249" s="71" t="s">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A249" t="s">
         <v>1969</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -21796,8 +21802,8 @@
       <c r="W249" s="124"/>
       <c r="X249" s="117"/>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A250" s="71" t="s">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A250" t="s">
         <v>1969</v>
       </c>
       <c r="B250" s="3" t="s">
@@ -21849,7 +21855,7 @@
       <c r="W250" s="124"/>
       <c r="X250" s="117"/>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
       <c r="A251" s="71" t="s">
         <v>1970</v>
       </c>
@@ -21912,8 +21918,8 @@
       <c r="W251" s="124"/>
       <c r="X251" s="117"/>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A252" s="71" t="s">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A252" t="s">
         <v>1970</v>
       </c>
       <c r="B252" s="3" t="s">
@@ -21974,8 +21980,8 @@
       <c r="W252" s="124"/>
       <c r="X252" s="117"/>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A253" s="71" t="s">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A253" t="s">
         <v>1970</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -22024,8 +22030,8 @@
       <c r="W253" s="124"/>
       <c r="X253" s="117"/>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A254" s="71" t="s">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A254" t="s">
         <v>1970</v>
       </c>
       <c r="B254" s="3" t="s">
@@ -42449,10 +42455,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -42597,6 +42603,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>1971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
